--- a/WhitepapersDB.xlsx
+++ b/WhitepapersDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hp-my.sharepoint.com/personal/daunou_hp_com/Documents/Quickspecs SCRIPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{3855F208-45DD-46C6-BAA4-FE63C1B02912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{514435E7-4E01-4EBF-BFEE-9993AC9D83B3}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{3855F208-45DD-46C6-BAA4-FE63C1B02912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8FADB48-DD55-4C96-A873-658839D1EC96}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{498DE967-2523-46FD-97F3-30D847CED5BA}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="1387">
   <si>
     <t>Category</t>
   </si>
@@ -4613,7 +4613,7 @@
   <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5214,6 +5214,9 @@
       <c r="C36" s="4" t="s">
         <v>1119</v>
       </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=4AA7-5829ENW</v>
@@ -5229,6 +5232,9 @@
       <c r="C37" s="4" t="s">
         <v>1119</v>
       </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=4AA8-1373ENW</v>
@@ -5478,6 +5484,9 @@
         <f t="shared" si="2"/>
         <v>Security</v>
       </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=4AA8-4638ENW</v>
@@ -5506,7 +5515,7 @@
         <v>1226</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1199</v>
+        <v>1277</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
@@ -5786,7 +5795,7 @@
         <v>1260</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1199</v>
+        <v>1277</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="3"/>
@@ -6736,7 +6745,7 @@
         <v>Workstation</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" ref="E130:E192" si="4">_xlfn.CONCAT("https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=",A130)</f>
+        <f t="shared" ref="E130:E134" si="4">_xlfn.CONCAT("https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=",A130)</f>
         <v>https://www8.hp.com/h20195/v2/GetDocument.aspx?docname=4AA8-2411ENW</v>
       </c>
     </row>
